--- a/Tasks/tasks.xlsx
+++ b/Tasks/tasks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>Nom de la class</t>
   </si>
@@ -426,13 +426,34 @@
   </si>
   <si>
     <t>Voir les alertes des utilisateurs</t>
+  </si>
+  <si>
+    <t>à faire/en cours</t>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
+    <t>Erreur/tâche stoppée</t>
+  </si>
+  <si>
+    <t>Couleur</t>
+  </si>
+  <si>
+    <t>Définition</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>Design the site better and add icons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +478,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,15 +546,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,28 +593,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,88 +623,143 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="double">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,535 +1048,535 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" customWidth="1"/>
-    <col min="3" max="3" width="104.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="32.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="104.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="15"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="15"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="15"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="15"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="15"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="15"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="15"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="15"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="15"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="15"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="15"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="15"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="15"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1504,361 +1586,354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C636A263-C7DD-4A9F-B724-027C5C4ADC20}">
-  <dimension ref="C2:E45"/>
+  <dimension ref="C2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="80.85546875" customWidth="1"/>
-    <col min="5" max="5" width="94.28515625" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="80.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="94.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="28.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="15" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
+      <c r="C8" s="14">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
+      <c r="C9" s="14">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+      <c r="C10" s="14">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
+      <c r="C11" s="14">
         <v>3</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4">
+      <c r="C12" s="14">
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="4">
+      <c r="C14" s="14">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
+      <c r="C15" s="14">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="4">
+      <c r="C16" s="14">
         <v>5</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="4">
+    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14">
         <v>6</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="4">
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14">
         <v>7</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="4">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14">
         <v>7</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="4">
+    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="14">
         <v>8</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="4">
+    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="14">
         <v>9</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4">
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14">
         <v>10</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4">
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14">
         <v>11</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14"/>
+      <c r="D24" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="D29" s="18" t="s">
+      <c r="D30" s="8"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" s="19" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="D31" s="19" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="9"/>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="9"/>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="9"/>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="9"/>
-      <c r="D35" s="1" t="s">
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="8"/>
+      <c r="D37" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="9"/>
-      <c r="D36" s="1" t="s">
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+      <c r="D38" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="9" t="s">
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
-      <c r="D39" s="18" t="s">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="9"/>
-      <c r="D40" s="18" t="s">
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="9"/>
-      <c r="D41" s="18" t="s">
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="8"/>
+      <c r="D44" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="8"/>
+      <c r="D45" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="9"/>
-      <c r="D44" s="1" t="s">
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="8"/>
+      <c r="D46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="9"/>
-      <c r="D45" s="20" t="s">
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="8"/>
+      <c r="D47" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>